--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +483,192 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>02/02/2003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Roy</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>07/05/2023</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Coding</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Timo</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Eunice</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>DRiver</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Work</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>gngn</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>gg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>07/05/2023</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ng</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ngn</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>gn</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ng</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>ng</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>gn</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>gnnngn</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>gng</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>07/05/2023</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>gngn</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ngng</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>gng</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ngn</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>gng</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>gn</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -1,231 +1,188 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7920"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="20490" windowHeight="7920" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Registration No.</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>Date Of Registration</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <t>Skill</t>
-  </si>
-  <si>
-    <t>Father Name</t>
-  </si>
-  <si>
-    <t>Mother Name</t>
-  </si>
-  <si>
-    <t>Father's Occupation</t>
-  </si>
-  <si>
-    <t>Mother's Occupation</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -525,154 +482,154 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,11 +683,74 @@
     <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1017,56 +1037,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Registration No.</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>DOB</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Date Of Registration</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Religion</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Skill</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Father Name</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Mother Name</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Father's Occupation</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Mother's Occupation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ggrgr</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>fgr</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>07/05/2023</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>gr</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>gr</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>gg</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>rgr</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>grg</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>rgrg</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -1042,7 +1042,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
@@ -1172,6 +1172,66 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>tht</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>rtght</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>07/05/2023</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ht</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>hth</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>ther</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>thtr</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>her</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>ehth</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -1,224 +1,181 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7920"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="20490" windowHeight="7920" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Registration No.</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>Date Of Registration</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <t>Skill</t>
-  </si>
-  <si>
-    <t>Father Name</t>
-  </si>
-  <si>
-    <t>Mother Name</t>
-  </si>
-  <si>
-    <t>Father's Occupation</t>
-  </si>
-  <si>
-    <t>Mother's Occupation</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -519,153 +476,153 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,11 +676,74 @@
     <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1010,64 +1030,150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="13.2222222222222" customWidth="1"/>
-    <col min="9" max="9" width="12.5555555555556" customWidth="1"/>
-    <col min="10" max="10" width="17.2222222222222" customWidth="1"/>
-    <col min="11" max="11" width="15.3333333333333" customWidth="1"/>
-    <col min="12" max="12" width="21.7777777777778" customWidth="1"/>
-    <col min="13" max="13" width="18.7777777777778" customWidth="1"/>
+    <col width="13.2222222222222" customWidth="1" min="6" max="6"/>
+    <col width="12.5555555555556" customWidth="1" min="9" max="9"/>
+    <col width="17.2222222222222" customWidth="1" min="10" max="10"/>
+    <col width="15.3333333333333" customWidth="1" min="11" max="11"/>
+    <col width="21.7777777777778" customWidth="1" min="12" max="12"/>
+    <col width="18.7777777777778" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Registration No.</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>DOB</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Date Of Registration</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Religion</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Skill</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Father Name</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Mother Name</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Father's Occupation</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Mother's Occupation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>02/02/2003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Roy</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>07/05/2023</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Coding</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Timothy</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Eunice</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Work</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -1035,7 +1035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Coding</t>
+          <t>Coding.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1170,6 +1170,66 @@
       <c r="L2" t="inlineStr">
         <is>
           <t>Work</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>01\02\2005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Steve</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>07/05/2023</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Programmer</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>QWERTY</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>QWerty</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Keys.</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>keys</t>
         </is>
       </c>
     </row>
